--- a/TODO/1-Saturday/Office space and cost.xlsx
+++ b/TODO/1-Saturday/Office space and cost.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TODO/1-Saturday/Office space and cost.xlsx
+++ b/TODO/1-Saturday/Office space and cost.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="G2" s="6">
         <f>SUM(G4:G12)</f>
-        <v>600000</v>
+        <v>595000</v>
       </c>
       <c r="L2" s="5">
         <f>SUM(L4:L7)</f>
@@ -763,7 +763,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
@@ -880,7 +880,7 @@
       </c>
       <c r="K12" s="8">
         <f>G2+L2</f>
-        <v>768120</v>
+        <v>763120</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
       </c>
       <c r="K13" s="13">
         <f>K11-K12</f>
-        <v>217380</v>
+        <v>222380</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">

--- a/TODO/1-Saturday/Office space and cost.xlsx
+++ b/TODO/1-Saturday/Office space and cost.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>Type</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>annual rev</t>
+  </si>
+  <si>
+    <t>Startup costs</t>
+  </si>
+  <si>
+    <t>BitLicense</t>
+  </si>
+  <si>
+    <t>http://www.coindesk.com/real-cost-applying-new-york-bitlicense/</t>
   </si>
 </sst>
 </file>
@@ -599,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1029,22 @@
       <c r="K26" s="5">
         <f>K24*365</f>
         <v>985500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TODO/1-Saturday/Office space and cost.xlsx
+++ b/TODO/1-Saturday/Office space and cost.xlsx
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TODO/1-Saturday/Office space and cost.xlsx
+++ b/TODO/1-Saturday/Office space and cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21900" windowHeight="10875"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Type</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>http://www.coindesk.com/real-cost-applying-new-york-bitlicense/</t>
+  </si>
+  <si>
+    <t>monthly rev</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1032,15 @@
       <c r="K26" s="5">
         <f>K24*365</f>
         <v>985500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="5">
+        <f>K26/12</f>
+        <v>82125</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
